--- a/scripts/my_publications.xlsx
+++ b/scripts/my_publications.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankunchu\Documents\src\anoopkunchukuttan.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62539626-06C7-4A35-8FAD-67AD1B80D674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692E7A29-6362-4EAD-B77A-3512A0BC788A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44880" yWindow="13680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$92</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="454">
   <si>
     <t>pub_year</t>
   </si>
@@ -1190,12 +1193,6 @@
     <t>arXiv preprint arXiv:2502.07424</t>
   </si>
   <si>
-    <t>RomanLens: Latent Romanization and its role in Multilinguality in LLMs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saji, Alan; Husain, Jaavid Aktar; Jayakumar, Thanmay; Dabre, Raj; Kunchukuttan, Anoop; Khapra, Mitesh M; Puduppully, Ratish; </t>
-  </si>
-  <si>
     <t>https://aclanthology.org/2024.lrec-main.1345/</t>
   </si>
   <si>
@@ -1383,6 +1380,24 @@
   </si>
   <si>
     <t>NLP/Embeddings/Indic</t>
+  </si>
+  <si>
+    <t>publications/presentations/icon_2013_smt_tutorial_slides.pdf</t>
+  </si>
+  <si>
+    <t>publications/presentations/icon-2015-tutorial-translation-related-lang-slides.pdf</t>
+  </si>
+  <si>
+    <t>Vishwabharat</t>
+  </si>
+  <si>
+    <t>/files/papers/clia_mwe_vishwabharat_2012.pdf</t>
+  </si>
+  <si>
+    <t>RomanLens: The Role Of Latent Romanization In Multilinguality In LLMs</t>
+  </si>
+  <si>
+    <t>Alan Saji, Jaavid Aktar Husain, Thanmay Jayakumar, Raj Dabre, Anoop Kunchukuttan, Ratish Puduppully</t>
   </si>
 </sst>
 </file>
@@ -1794,11 +1809,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1808,7 +1824,7 @@
     <col min="3" max="3" width="39" style="4" customWidth="1"/>
     <col min="4" max="4" width="34.7890625" style="4" customWidth="1"/>
     <col min="5" max="5" width="41.20703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="26.3671875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30.20703125" style="10" customWidth="1"/>
     <col min="7" max="7" width="10.20703125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.20703125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.20703125" style="4" customWidth="1"/>
@@ -1816,7 +1832,7 @@
     <col min="11" max="16384" width="8.83984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1842,30 +1858,30 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>2025</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>405</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>320</v>
@@ -1879,19 +1895,19 @@
         <v>2025</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>384</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>386</v>
+        <v>453</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>302</v>
@@ -1899,12 +1915,12 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>2024</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>374</v>
@@ -1916,7 +1932,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>320</v>
@@ -1929,7 +1945,7 @@
         <v>2024</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>381</v>
@@ -1941,7 +1957,7 @@
         <v>382</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>302</v>
@@ -1954,7 +1970,7 @@
         <v>2024</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>377</v>
@@ -1966,7 +1982,7 @@
         <v>378</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>302</v>
@@ -1979,7 +1995,7 @@
         <v>2024</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>375</v>
@@ -1991,7 +2007,7 @@
         <v>376</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>302</v>
@@ -1999,12 +2015,12 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>2024</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>371</v>
@@ -2016,7 +2032,7 @@
         <v>372</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>344</v>
@@ -2024,12 +2040,12 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>2024</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>369</v>
@@ -2041,7 +2057,7 @@
         <v>368</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>344</v>
@@ -2049,12 +2065,12 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>2024</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>360</v>
@@ -2066,21 +2082,21 @@
         <v>361</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>344</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>2024</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>362</v>
@@ -2092,21 +2108,21 @@
         <v>363</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>344</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>2024</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>365</v>
@@ -2118,18 +2134,18 @@
         <v>366</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>2024</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>246</v>
@@ -2150,12 +2166,12 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>2024</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>257</v>
@@ -2179,12 +2195,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>2023</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>154</v>
@@ -2205,12 +2221,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>2023</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>163</v>
@@ -2231,12 +2247,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>2023</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>172</v>
@@ -2257,12 +2273,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>2023</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>321</v>
@@ -2283,12 +2299,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
         <v>2023</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>209</v>
@@ -2309,12 +2325,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4">
         <v>2023</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>239</v>
@@ -2335,12 +2351,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" ht="86.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4">
         <v>2023</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>242</v>
@@ -2361,12 +2377,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4">
         <v>2023</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>254</v>
@@ -2387,12 +2403,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4">
         <v>2023</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>261</v>
@@ -2413,12 +2429,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4">
         <v>2023</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>265</v>
@@ -2439,12 +2455,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4">
         <v>2023</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>269</v>
@@ -2465,12 +2481,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" ht="100.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4">
         <v>2022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
@@ -2492,12 +2508,12 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4">
         <v>2022</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>61</v>
@@ -2519,12 +2535,12 @@
       </c>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4">
         <v>2022</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>77</v>
@@ -2546,12 +2562,12 @@
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4">
         <v>2022</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>115</v>
@@ -2573,12 +2589,12 @@
       </c>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4">
         <v>2022</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>168</v>
@@ -2600,12 +2616,12 @@
       </c>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4">
         <v>2022</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>212</v>
@@ -2627,12 +2643,12 @@
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4">
         <v>2021</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>348</v>
@@ -2653,18 +2669,18 @@
         <v>351</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4">
         <v>2021</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>51</v>
@@ -2680,12 +2696,12 @@
       </c>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4">
         <v>2021</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>201</v>
@@ -2707,12 +2723,12 @@
       </c>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4">
         <v>2021</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>183</v>
@@ -2739,13 +2755,13 @@
         <v>2021</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -2754,19 +2770,19 @@
         <v>217</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>302</v>
+        <v>407</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>218</v>
       </c>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4">
         <v>2021</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>219</v>
@@ -2788,7 +2804,7 @@
       </c>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" ht="100.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4">
         <v>2021</v>
       </c>
@@ -2815,12 +2831,12 @@
       </c>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4">
         <v>2020</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>9</v>
@@ -2842,12 +2858,12 @@
       </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4">
         <v>2020</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>326</v>
@@ -2869,7 +2885,7 @@
       </c>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4">
         <v>2020</v>
       </c>
@@ -2901,7 +2917,7 @@
         <v>2020</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>29</v>
@@ -2916,19 +2932,19 @@
         <v>329</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>302</v>
+        <v>407</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4">
         <v>2020</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -2955,13 +2971,13 @@
         <v>2020</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>70</v>
@@ -2970,19 +2986,19 @@
         <v>97</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>302</v>
+        <v>407</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>98</v>
       </c>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4">
         <v>2020</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>121</v>
@@ -3004,12 +3020,12 @@
       </c>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4">
         <v>2020</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>133</v>
@@ -3031,12 +3047,12 @@
       </c>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4">
         <v>2020</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>195</v>
@@ -3051,19 +3067,19 @@
         <v>331</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>302</v>
+        <v>407</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4">
         <v>2020</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>222</v>
@@ -3085,12 +3101,12 @@
       </c>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4">
         <v>2019</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>31</v>
@@ -3112,12 +3128,12 @@
       </c>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4">
         <v>2019</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>58</v>
@@ -3139,7 +3155,7 @@
       </c>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4">
         <v>2019</v>
       </c>
@@ -3166,12 +3182,12 @@
       </c>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="4">
         <v>2018</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>15</v>
@@ -3193,12 +3209,12 @@
       </c>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="4">
         <v>2018</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>64</v>
@@ -3220,12 +3236,12 @@
       </c>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4">
         <v>2018</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>99</v>
@@ -3247,12 +3263,12 @@
       </c>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4">
         <v>2018</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>118</v>
@@ -3274,12 +3290,12 @@
       </c>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4">
         <v>2018</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>124</v>
@@ -3301,12 +3317,12 @@
       </c>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4">
         <v>2018</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>137</v>
@@ -3328,12 +3344,12 @@
       </c>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4">
         <v>2018</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>183</v>
@@ -3355,7 +3371,7 @@
       </c>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4">
         <v>2018</v>
       </c>
@@ -3382,12 +3398,12 @@
       </c>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4">
         <v>2017</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>82</v>
@@ -3408,7 +3424,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4">
         <v>2017</v>
       </c>
@@ -3434,12 +3450,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4">
         <v>2017</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>176</v>
@@ -3460,12 +3476,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="4">
         <v>2016</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>69</v>
@@ -3486,12 +3502,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4">
         <v>2016</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>107</v>
@@ -3512,7 +3528,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4">
         <v>2016</v>
       </c>
@@ -3538,12 +3554,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4">
         <v>2016</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>197</v>
@@ -3564,7 +3580,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="4">
         <v>2016</v>
       </c>
@@ -3590,18 +3606,18 @@
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4">
         <v>2015</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>47</v>
@@ -3616,7 +3632,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4">
         <v>2015</v>
       </c>
@@ -3642,12 +3658,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4">
         <v>2015</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>145</v>
@@ -3668,7 +3684,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4">
         <v>2015</v>
       </c>
@@ -3694,12 +3710,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4">
         <v>2015</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>225</v>
@@ -3720,7 +3736,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="4">
         <v>2015</v>
       </c>
@@ -3746,24 +3762,24 @@
         <v>253</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4">
         <v>2015</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>283</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F74" s="10" t="s">
-        <v>12</v>
+      <c r="F74" s="1" t="s">
+        <v>449</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>320</v>
@@ -3772,12 +3788,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4">
         <v>2014</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>39</v>
@@ -3798,12 +3814,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4">
         <v>2014</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>54</v>
@@ -3824,7 +3840,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="4">
         <v>2014</v>
       </c>
@@ -3835,7 +3851,7 @@
         <v>73</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>74</v>
@@ -3850,12 +3866,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4">
         <v>2014</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>91</v>
@@ -3876,7 +3892,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="4">
         <v>2014</v>
       </c>
@@ -3902,12 +3918,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="4">
         <v>2014</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>149</v>
@@ -3928,7 +3944,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="4">
         <v>2014</v>
       </c>
@@ -3954,7 +3970,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4">
         <v>2014</v>
       </c>
@@ -3965,13 +3981,13 @@
         <v>286</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>287</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>12</v>
+        <v>448</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>320</v>
@@ -3980,7 +3996,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="4">
         <v>2014</v>
       </c>
@@ -4006,12 +4022,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4">
         <v>2013</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>190</v>
@@ -4032,12 +4048,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4">
         <v>2013</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>228</v>
@@ -4058,12 +4074,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4">
         <v>2012</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>111</v>
@@ -4084,7 +4100,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="4">
         <v>2012</v>
       </c>
@@ -4095,7 +4111,7 @@
         <v>293</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>70</v>
@@ -4115,22 +4131,22 @@
         <v>2012</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>296</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>12</v>
+        <v>450</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>297</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>12</v>
+        <v>451</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>298</v>
@@ -4156,24 +4172,24 @@
         <v>12</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4">
         <v>2008</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>43</v>
@@ -4188,12 +4204,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="4">
         <v>2007</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>233</v>
@@ -4214,12 +4230,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="4">
         <v>2006</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>236</v>
@@ -4241,6 +4257,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J92" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Article"/>
+        <filter val="Pre-print"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:H92">
     <sortCondition descending="1" ref="A15:A92"/>
   </sortState>

--- a/scripts/my_publications.xlsx
+++ b/scripts/my_publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankunchu\Documents\src\anoopkunchukuttan.github.io\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692E7A29-6362-4EAD-B77A-3512A0BC788A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBB2785-CAFE-4FCD-A42D-A96C973CB487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="13680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -974,9 +974,6 @@
     <t>REPL4NLP/non-archival</t>
   </si>
   <si>
-    <t>REPL4LP</t>
-  </si>
-  <si>
     <t>WMT</t>
   </si>
   <si>
@@ -1398,6 +1395,9 @@
   </si>
   <si>
     <t>Alan Saji, Jaavid Aktar Husain, Thanmay Jayakumar, Raj Dabre, Anoop Kunchukuttan, Ratish Puduppully</t>
+  </si>
+  <si>
+    <t>REPL4NLP</t>
   </si>
 </sst>
 </file>
@@ -1809,12 +1809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1858,33 +1857,33 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>2025</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1895,19 +1894,19 @@
         <v>2025</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>453</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>302</v>
@@ -1915,15 +1914,15 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>2024</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -1932,10 +1931,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1945,19 +1944,19 @@
         <v>2024</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>302</v>
@@ -1970,19 +1969,19 @@
         <v>2024</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>378</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>302</v>
@@ -1995,19 +1994,19 @@
         <v>2024</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>302</v>
@@ -2015,137 +2014,137 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>2024</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>372</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>2024</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>370</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>2024</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>2024</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>2024</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>2024</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>246</v>
@@ -2160,24 +2159,24 @@
         <v>248</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>2024</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>257</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>258</v>
@@ -2186,7 +2185,7 @@
         <v>259</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>260</v>
@@ -2195,12 +2194,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>2023</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>154</v>
@@ -2215,18 +2214,18 @@
         <v>156</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>2023</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>163</v>
@@ -2241,18 +2240,18 @@
         <v>166</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>2023</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>172</v>
@@ -2267,21 +2266,21 @@
         <v>174</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>2023</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>78</v>
@@ -2293,18 +2292,18 @@
         <v>181</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
         <v>2023</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>209</v>
@@ -2316,21 +2315,21 @@
         <v>210</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4">
         <v>2023</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>239</v>
@@ -2339,30 +2338,30 @@
         <v>164</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>240</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="86.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4">
         <v>2023</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>242</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>243</v>
@@ -2371,18 +2370,18 @@
         <v>244</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4">
         <v>2023</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>254</v>
@@ -2394,21 +2393,21 @@
         <v>255</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4">
         <v>2023</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>261</v>
@@ -2423,18 +2422,18 @@
         <v>263</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4">
         <v>2023</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>265</v>
@@ -2449,18 +2448,18 @@
         <v>267</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4">
         <v>2023</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>269</v>
@@ -2472,21 +2471,21 @@
         <v>170</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="100.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4">
         <v>2022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
@@ -2501,19 +2500,19 @@
         <v>27</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4">
         <v>2022</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>61</v>
@@ -2525,22 +2524,22 @@
         <v>62</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>63</v>
       </c>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4">
         <v>2022</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>77</v>
@@ -2555,19 +2554,19 @@
         <v>80</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>81</v>
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4">
         <v>2022</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>115</v>
@@ -2579,22 +2578,22 @@
         <v>116</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>117</v>
       </c>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4">
         <v>2022</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>168</v>
@@ -2606,22 +2605,22 @@
         <v>170</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>171</v>
       </c>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4">
         <v>2022</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>212</v>
@@ -2636,51 +2635,51 @@
         <v>214</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>215</v>
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4">
         <v>2021</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4">
         <v>2021</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>51</v>
@@ -2689,19 +2688,19 @@
         <v>52</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>53</v>
       </c>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4">
         <v>2021</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>201</v>
@@ -2716,37 +2715,37 @@
         <v>203</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>204</v>
       </c>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4">
         <v>2021</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>183</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="J35" s="7"/>
     </row>
@@ -2755,13 +2754,13 @@
         <v>2021</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
@@ -2770,19 +2769,19 @@
         <v>217</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>218</v>
       </c>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4">
         <v>2021</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>219</v>
@@ -2794,22 +2793,22 @@
         <v>220</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>221</v>
       </c>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" ht="100.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4">
         <v>2021</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>272</v>
@@ -2824,19 +2823,19 @@
         <v>274</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>275</v>
       </c>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4">
         <v>2020</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>9</v>
@@ -2851,22 +2850,22 @@
         <v>11</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4">
         <v>2020</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>310</v>
@@ -2875,22 +2874,22 @@
         <v>19</v>
       </c>
       <c r="F40" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4">
         <v>2020</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>21</v>
@@ -2905,7 +2904,7 @@
         <v>23</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>24</v>
@@ -2917,7 +2916,7 @@
         <v>2020</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>29</v>
@@ -2929,22 +2928,22 @@
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4">
         <v>2020</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>35</v>
@@ -2959,7 +2958,7 @@
         <v>37</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>38</v>
@@ -2971,13 +2970,13 @@
         <v>2020</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>70</v>
@@ -2986,52 +2985,52 @@
         <v>97</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>98</v>
       </c>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4">
         <v>2020</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>312</v>
+        <v>453</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>122</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>123</v>
       </c>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4">
         <v>2020</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>134</v>
@@ -3040,7 +3039,7 @@
         <v>135</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>136</v>
@@ -3052,7 +3051,7 @@
         <v>2020</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>195</v>
@@ -3064,28 +3063,28 @@
         <v>13</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>196</v>
       </c>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4">
         <v>2020</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>222</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>19</v>
@@ -3094,19 +3093,19 @@
         <v>223</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>224</v>
       </c>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4">
         <v>2019</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>31</v>
@@ -3121,19 +3120,19 @@
         <v>33</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4">
         <v>2019</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>58</v>
@@ -3145,22 +3144,22 @@
         <v>59</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>60</v>
       </c>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4">
         <v>2019</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>276</v>
@@ -3175,46 +3174,46 @@
         <v>278</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>279</v>
       </c>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="4">
         <v>2018</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="4">
         <v>2018</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>64</v>
@@ -3229,19 +3228,19 @@
         <v>67</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>68</v>
       </c>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4">
         <v>2018</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>99</v>
@@ -3256,19 +3255,19 @@
         <v>101</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>102</v>
       </c>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4">
         <v>2018</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>118</v>
@@ -3280,22 +3279,22 @@
         <v>119</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>120</v>
       </c>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4">
         <v>2018</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>124</v>
@@ -3310,19 +3309,19 @@
         <v>126</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>127</v>
       </c>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4">
         <v>2018</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>137</v>
@@ -3337,25 +3336,25 @@
         <v>139</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>140</v>
       </c>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4">
         <v>2018</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>183</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>13</v>
@@ -3364,19 +3363,19 @@
         <v>12</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>184</v>
       </c>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4">
         <v>2018</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>280</v>
@@ -3391,19 +3390,19 @@
         <v>12</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>282</v>
       </c>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4">
         <v>2017</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>82</v>
@@ -3418,18 +3417,18 @@
         <v>84</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4">
         <v>2017</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>103</v>
@@ -3444,24 +3443,24 @@
         <v>105</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4">
         <v>2017</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>176</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>177</v>
@@ -3470,18 +3469,18 @@
         <v>178</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="4">
         <v>2016</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>69</v>
@@ -3496,24 +3495,24 @@
         <v>71</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4">
         <v>2016</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>108</v>
@@ -3522,18 +3521,18 @@
         <v>109</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4">
         <v>2016</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>141</v>
@@ -3548,24 +3547,24 @@
         <v>143</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4">
         <v>2016</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>197</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>198</v>
@@ -3574,18 +3573,18 @@
         <v>199</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="4">
         <v>2016</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>205</v>
@@ -3600,24 +3599,24 @@
         <v>207</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4">
         <v>2015</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>47</v>
@@ -3626,13 +3625,13 @@
         <v>48</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4">
         <v>2015</v>
       </c>
@@ -3652,18 +3651,18 @@
         <v>89</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4">
         <v>2015</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>145</v>
@@ -3678,18 +3677,18 @@
         <v>147</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4">
         <v>2015</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>158</v>
@@ -3704,18 +3703,18 @@
         <v>161</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4">
         <v>2015</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>225</v>
@@ -3730,18 +3729,18 @@
         <v>226</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="4">
         <v>2015</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>250</v>
@@ -3762,38 +3761,38 @@
         <v>253</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4">
         <v>2015</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>283</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>284</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4">
         <v>2014</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>39</v>
@@ -3808,18 +3807,18 @@
         <v>12</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4">
         <v>2014</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>54</v>
@@ -3834,24 +3833,24 @@
         <v>56</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="4">
         <v>2014</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>74</v>
@@ -3860,18 +3859,18 @@
         <v>75</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4">
         <v>2014</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>91</v>
@@ -3886,18 +3885,18 @@
         <v>94</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="4">
         <v>2014</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>128</v>
@@ -3912,18 +3911,18 @@
         <v>131</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="4">
         <v>2014</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>149</v>
@@ -3938,18 +3937,18 @@
         <v>152</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="4">
         <v>2014</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>185</v>
@@ -3964,44 +3963,44 @@
         <v>188</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4">
         <v>2014</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>286</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>287</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="4">
         <v>2014</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>289</v>
@@ -4016,18 +4015,18 @@
         <v>12</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4">
         <v>2013</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>190</v>
@@ -4042,18 +4041,18 @@
         <v>193</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4">
         <v>2013</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>228</v>
@@ -4068,24 +4067,24 @@
         <v>231</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4">
         <v>2012</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>112</v>
@@ -4094,24 +4093,24 @@
         <v>113</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="4">
         <v>2012</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>293</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>70</v>
@@ -4120,7 +4119,7 @@
         <v>294</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>295</v>
@@ -4131,22 +4130,22 @@
         <v>2012</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>296</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>297</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>298</v>
@@ -4157,7 +4156,7 @@
         <v>2012</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>299</v>
@@ -4172,24 +4171,24 @@
         <v>12</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4">
         <v>2008</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>43</v>
@@ -4198,18 +4197,18 @@
         <v>44</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="4">
         <v>2007</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>233</v>
@@ -4224,18 +4223,18 @@
         <v>234</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="4">
         <v>2006</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>236</v>
@@ -4250,21 +4249,14 @@
         <v>237</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>238</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J92" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Article"/>
-        <filter val="Pre-print"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J92" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:H92">
     <sortCondition descending="1" ref="A15:A92"/>
   </sortState>
